--- a/livrables/tachesProjetIntensif.xlsx
+++ b/livrables/tachesProjetIntensif.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>Nom</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Equipe</t>
   </si>
   <si>
-    <t>Taches</t>
-  </si>
-  <si>
     <t>Robin Seichais</t>
   </si>
   <si>
@@ -69,96 +66,234 @@
     <t>Chef de projet</t>
   </si>
   <si>
-    <t>Developpement Android
-Envoie et reception des commandes JSON
-Aide Communication PI et Android
-Interface en cours de lecture</t>
-  </si>
-  <si>
-    <t>Scénario/Film
-Logo
+    <t>Lundi</t>
+  </si>
+  <si>
+    <t>Mardi</t>
+  </si>
+  <si>
+    <t>Mercredi</t>
+  </si>
+  <si>
+    <t>Jeudi</t>
+  </si>
+  <si>
+    <t>Vendredi</t>
+  </si>
+  <si>
+    <t>Gestion de projet
+Relation client
+Aide JSON</t>
+  </si>
+  <si>
+    <t>Découverte projet et choix du sujet</t>
+  </si>
+  <si>
+    <t>Découverte projet et choix du sujet
+Création des groupes
+Mise en place GIT</t>
+  </si>
+  <si>
+    <t>Prise en main Kodi
+Aide installation du serveur</t>
+  </si>
+  <si>
+    <t>Gestion envoie/reception JSON-RPC</t>
+  </si>
+  <si>
+    <t>Installation serveur python
+Debug lien Android vers PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion de projet
+Relation client
+Aide debug/scenario
+</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>Communication entre PI et Android bugué</t>
+  </si>
+  <si>
+    <t>Debug lien Android vers PI
+Etude communication PI vers diffuseurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface graphique amélioré
+Etude scan wifi
+</t>
+  </si>
+  <si>
+    <t>Interface graphique amélioré
+gestion des appels depuis PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Communication PI vers Kido
+Developpement pause/play/stop/recuperation listes en locales pour l'audio</t>
+  </si>
+  <si>
+    <t>Aide scenario
+prises de vues
+Debug serveur</t>
+  </si>
+  <si>
+    <t>Debug d'integration</t>
+  </si>
+  <si>
+    <t>Gestion des appels</t>
+  </si>
+  <si>
+    <t>Communication entre PI et Android fonctionnel basique
+Communication entre PI et Kodi bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion de projet
+Relation client
+Documentation
+Aide Serveur/video
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interface graphique basique (liste)
+Gestion d'envoie de commandes
+Gestion du "calcul" de la  distance avec le bluetooth</t>
+  </si>
+  <si>
+    <t>Interface graphique basique (liste)
+Gestion d'envoie de commandes
+Gestion du "calcul" de la  distance avec le bluetooth</t>
+  </si>
+  <si>
+    <t>Scénario
+Montage intro</t>
+  </si>
+  <si>
+    <t>Découverte projet et choix du sujet
+Installation Kodi
+Configuration RasPi</t>
+  </si>
+  <si>
+    <t>Debug lien Android vers PI
+Prises de vues (acteur)
+integration coté serveur
+Communication PI vers Kodi</t>
+  </si>
+  <si>
+    <t>Prise en main JSON-RPC sous Python
+API Kido</t>
+  </si>
+  <si>
+    <t>Integration pause/play/stop/recuperation listes
+Developpement pause/play/stop/recuperation listes en locales pour la video
+Communication PI vers Kido</t>
+  </si>
+  <si>
+    <t>Communication entre PI et Android fonctionnel évolué
+Communication entre PI et Kodi pour l'audio
+Demo prete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion de projet
+Relation client
+Preparation package
+</t>
+  </si>
+  <si>
+    <t>Interface graphique de lecture
+Gestion des appels depuis PI</t>
+  </si>
+  <si>
+    <t>Gestion envoie/reception JSON-RPC
+Recherche communication PI et Android</t>
+  </si>
+  <si>
+    <t>Gestion envoie/reception JSON-RPC
+prise d'images (acteur)
+Interface Amélioré
+Recherche communication PI et Android</t>
+  </si>
+  <si>
+    <t>Debug lien Android vers PI
+Integration Android</t>
+  </si>
+  <si>
+    <t>Interface graphique de lecture
+Aide communication PI vers Android</t>
+  </si>
+  <si>
+    <t>communication PI vers Kodi
+communication Android vers PI
+integration coté cerveur</t>
+  </si>
+  <si>
+    <t>Scenario
+Prises de vues
 Montage
 Gestion projet
 Relation client</t>
   </si>
   <si>
-    <t>Scénario/Film
-Logo
-Montage</t>
-  </si>
-  <si>
-    <t>Decouverte xbmc, parametrage (UPNP)
-Aide Communication PI et Android
-Debug PI
-Gestion serveur PI</t>
-  </si>
-  <si>
-    <t>Developpement Android
-Réalisation des interfaces graphiques et leur commandes
-Scan environnement
-Scan bluetooth</t>
-  </si>
-  <si>
-    <t>Developpement Android
-Envoie et reception des commandes JSON
-Interface en cours de lecture
-Aide film (acteur)</t>
-  </si>
-  <si>
-    <t>Installation PI 
-Developpement python
-Communication PI et Android (serveur)
-Aide communication PI et XBMC
-Aide vidéo (idées, voix, acteur)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Developpement Android
-Réalisation des commandes  des interfaces graphiques
-Communication PI et Android
-Scan Bluetooth
-Integration Android
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gestion du changement de diffuseur</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion projet
-Relation client
-Aides/recherches multiples lors de difficulté dans les équipes </t>
-  </si>
-  <si>
-    <r>
-      <t>Developpement python
-Communication  entre PI et XBMC commandes audio: play/pause/stop
-commandes film : play/pause/stop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (local)</t>
-    </r>
+    <t>Scenario
+Montage marketing
+Montage fonctionnel
+Prises de vues
+Gestion projet
+Relation client</t>
+  </si>
+  <si>
+    <t>Scénario
+Montage intro
+Montage marketing
+Prise de vues
+Gestion projet
+Relation client</t>
+  </si>
+  <si>
+    <t>Scénario
+Montage intro
+Montage marketing
+Prises de vues</t>
+  </si>
+  <si>
+    <t>Scénario
+Montage intro
+Gestion projet
+Relation client</t>
+  </si>
+  <si>
+    <t>Integration Android
+Communication PI vers Android
+Gestion du switch entre diffuseurs</t>
+  </si>
+  <si>
+    <t>Debug d'integration
+Integration code Android
+Gestion du switch entre diffuseurs</t>
+  </si>
+  <si>
+    <t>Scénario
+Montage marketing
+Montage fonctionnel
+Prises de sons
+Prises de vues</t>
+  </si>
+  <si>
+    <t>Prises de vues
+Prises de sons
+montage final</t>
+  </si>
+  <si>
+    <t>Idée trouvée</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,23 +301,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -190,18 +348,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,128 +820,289 @@
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="27"/>
     </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="27"/>
     </row>
-    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="27"/>
     </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
